--- a/7/1/1/5/2/Ingreso nacional bruto disponible 1996 a 2021 - Trimestral.xlsx
+++ b/7/1/1/5/2/Ingreso nacional bruto disponible 1996 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Serie</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -704,7 +707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3947,31 +3950,63 @@
         <v>110</v>
       </c>
       <c r="B102">
-        <v>38012</v>
+        <v>38076</v>
       </c>
       <c r="C102">
-        <v>1149</v>
+        <v>1175</v>
       </c>
       <c r="D102">
-        <v>3171</v>
+        <v>3458</v>
       </c>
       <c r="E102">
-        <v>36001</v>
+        <v>35813</v>
       </c>
       <c r="F102">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="G102">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H102">
-        <v>35990</v>
+        <v>35811</v>
       </c>
       <c r="I102">
-        <v>38174</v>
+        <v>38129</v>
       </c>
       <c r="J102">
-        <v>39238</v>
+        <v>39368</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" t="s">
+        <v>111</v>
+      </c>
+      <c r="B103">
+        <v>39677</v>
+      </c>
+      <c r="C103">
+        <v>1242</v>
+      </c>
+      <c r="D103">
+        <v>3892</v>
+      </c>
+      <c r="E103">
+        <v>37058</v>
+      </c>
+      <c r="F103">
+        <v>719</v>
+      </c>
+      <c r="G103">
+        <v>690</v>
+      </c>
+      <c r="H103">
+        <v>37089</v>
+      </c>
+      <c r="I103">
+        <v>39882</v>
+      </c>
+      <c r="J103">
+        <v>41667</v>
       </c>
     </row>
   </sheetData>
